--- a/Maze Designer/Book.xlsx
+++ b/Maze Designer/Book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B9ADD9-5995-47B9-80F7-19010D820549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3062F0-707B-4458-BBB8-6692F2C90984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,8 +40,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,8 +61,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -97,17 +116,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -136,13 +144,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -154,53 +171,29 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +531,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,56 +546,57 @@
     <row r="2" spans="2:8" ht="25.5" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:8" ht="28.5" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:8" ht="26.25" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B8" s="1"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="C9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
